--- a/TestData/RegisterTestData.xlsx
+++ b/TestData/RegisterTestData.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\eclipse-workspace\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9257C9-A7B0-4BAE-B18F-B0CD7652E7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889EB1E-44D6-4D27-81E0-22EB5F8AF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-8655" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,39 +49,73 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Password Confirm</t>
-  </si>
-  <si>
-    <t>Raman</t>
-  </si>
-  <si>
-    <t>SITA</t>
-  </si>
-  <si>
     <t xml:space="preserve">UserName  </t>
   </si>
   <si>
-    <t>TeladocUser</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>MURUGAN1014</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>FirstNameTeladoc</t>
+  </si>
+  <si>
+    <t>LastNameTeladoc</t>
+  </si>
+  <si>
+    <t>Password@1014</t>
+  </si>
+  <si>
+    <t>Password@1015</t>
+  </si>
+  <si>
+    <t>Teladoc</t>
+  </si>
+  <si>
+    <t>TeladocUserOne</t>
+  </si>
+  <si>
+    <t>TeladocUserTwo</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>NameRam@gmail.com</t>
+  </si>
+  <si>
+    <t>NameRamTeladoc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,16 +138,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,26 +430,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,16 +456,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -436,44 +473,65 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE(A1,A2,"@gmail.com")</f>
-        <v>FirstNameRaman@gmail.com</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(1111111111,9999999999),"0")</f>
-        <v>6174577634</v>
-      </c>
-      <c r="I2" t="str">
-        <f>D2</f>
-        <v>MURUGAN1014</v>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DB3092F1-996D-40E5-8A74-F9E1646A7AA0}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0C93A3D1-E0B4-4180-B2A8-16331DDC62F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>